--- a/data/download_SZ159915.xlsx
+++ b/data/download_SZ159915.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3204"/>
+  <dimension ref="A1:F3205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77337,6 +77337,30 @@
         <v>2.185</v>
       </c>
     </row>
+    <row r="3205">
+      <c r="A3205" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B3205" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3205" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="D3205" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="E3205" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F3205" t="n">
+        <v>2.201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159915.xlsx
+++ b/data/download_SZ159915.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3205"/>
+  <dimension ref="A1:F3209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77361,6 +77361,102 @@
         <v>2.201</v>
       </c>
     </row>
+    <row r="3206">
+      <c r="A3206" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B3206" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3206" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="D3206" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="E3206" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="F3206" t="n">
+        <v>2.185</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B3207" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3207" t="n">
+        <v>2.223</v>
+      </c>
+      <c r="D3207" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="E3207" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="F3207" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B3208" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3208" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="D3208" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="E3208" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="F3208" t="n">
+        <v>2.183</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B3209" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3209" t="n">
+        <v>2.151</v>
+      </c>
+      <c r="D3209" t="n">
+        <v>2.197</v>
+      </c>
+      <c r="E3209" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="F3209" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159915.xlsx
+++ b/data/download_SZ159915.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3209"/>
+  <dimension ref="A1:F3210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="C3209" t="n">
-        <v>2.151</v>
+        <v>2.128</v>
       </c>
       <c r="D3209" t="n">
         <v>2.197</v>
@@ -77454,7 +77454,31 @@
         <v>2.198</v>
       </c>
       <c r="F3209" t="n">
-        <v>2.15</v>
+        <v>2.123</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B3210" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3210" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="D3210" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="E3210" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="F3210" t="n">
+        <v>2.12</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SZ159915.xlsx
+++ b/data/download_SZ159915.xlsx
@@ -77469,13 +77469,13 @@
         </is>
       </c>
       <c r="C3210" t="n">
-        <v>2.186</v>
+        <v>2.154</v>
       </c>
       <c r="D3210" t="n">
         <v>2.133</v>
       </c>
       <c r="E3210" t="n">
-        <v>2.186</v>
+        <v>2.189</v>
       </c>
       <c r="F3210" t="n">
         <v>2.12</v>

--- a/data/download_SZ159915.xlsx
+++ b/data/download_SZ159915.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3210"/>
+  <dimension ref="A1:F3246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77481,6 +77481,870 @@
         <v>2.12</v>
       </c>
     </row>
+    <row r="3211">
+      <c r="A3211" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B3211" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3211" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="D3211" t="n">
+        <v>2.131</v>
+      </c>
+      <c r="E3211" t="n">
+        <v>2.151</v>
+      </c>
+      <c r="F3211" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B3212" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3212" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="D3212" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="E3212" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="F3212" t="n">
+        <v>2.131</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B3213" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3213" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="D3213" t="n">
+        <v>2.162</v>
+      </c>
+      <c r="E3213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F3213" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B3214" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3214" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="D3214" t="n">
+        <v>2.181</v>
+      </c>
+      <c r="E3214" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="F3214" t="n">
+        <v>2.152</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B3215" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3215" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="D3215" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="E3215" t="n">
+        <v>2.174</v>
+      </c>
+      <c r="F3215" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B3216" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3216" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="D3216" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="E3216" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="F3216" t="n">
+        <v>2.131</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B3217" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3217" t="n">
+        <v>2.149</v>
+      </c>
+      <c r="D3217" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E3217" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="F3217" t="n">
+        <v>2.148</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B3218" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3218" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="D3218" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="E3218" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="F3218" t="n">
+        <v>2.113</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B3219" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3219" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="D3219" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="E3219" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F3219" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B3220" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3220" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="D3220" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E3220" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="F3220" t="n">
+        <v>2.169</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B3221" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3221" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="D3221" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="E3221" t="n">
+        <v>2.201</v>
+      </c>
+      <c r="F3221" t="n">
+        <v>2.173</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B3222" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3222" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="D3222" t="n">
+        <v>2.181</v>
+      </c>
+      <c r="E3222" t="n">
+        <v>2.195</v>
+      </c>
+      <c r="F3222" t="n">
+        <v>2.166</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B3223" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3223" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="D3223" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="E3223" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F3223" t="n">
+        <v>2.155</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B3224" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3224" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="D3224" t="n">
+        <v>2.153</v>
+      </c>
+      <c r="E3224" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="F3224" t="n">
+        <v>2.108</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B3225" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3225" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="D3225" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E3225" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="F3225" t="n">
+        <v>2.084</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B3226" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3226" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="D3226" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E3226" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="F3226" t="n">
+        <v>2.094</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B3227" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3227" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="D3227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E3227" t="n">
+        <v>2.117</v>
+      </c>
+      <c r="F3227" t="n">
+        <v>2.097</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B3228" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3228" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="D3228" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="E3228" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="F3228" t="n">
+        <v>2.076</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B3229" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3229" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="D3229" t="n">
+        <v>2.101</v>
+      </c>
+      <c r="E3229" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="F3229" t="n">
+        <v>2.087</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B3230" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3230" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="D3230" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="E3230" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="F3230" t="n">
+        <v>2.047</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B3231" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3231" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="D3231" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="E3231" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="F3231" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B3232" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3232" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="D3232" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="E3232" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="F3232" t="n">
+        <v>2.057</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B3233" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3233" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="D3233" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="E3233" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="F3233" t="n">
+        <v>2.018</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B3234" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3234" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D3234" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E3234" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="F3234" t="n">
+        <v>1.721</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B3235" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3235" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="D3235" t="n">
+        <v>1.792</v>
+      </c>
+      <c r="E3235" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="F3235" t="n">
+        <v>1.777</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B3236" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3236" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="D3236" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="E3236" t="n">
+        <v>1.838</v>
+      </c>
+      <c r="F3236" t="n">
+        <v>1.743</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B3237" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3237" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="D3237" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E3237" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F3237" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B3238" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3238" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D3238" t="n">
+        <v>1.845</v>
+      </c>
+      <c r="E3238" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="F3238" t="n">
+        <v>1.844</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B3239" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3239" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D3239" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E3239" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F3239" t="n">
+        <v>1.892</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B3240" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3240" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D3240" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E3240" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F3240" t="n">
+        <v>1.881</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B3241" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3241" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D3241" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E3241" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F3241" t="n">
+        <v>1.844</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B3242" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3242" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="D3242" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="E3242" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F3242" t="n">
+        <v>1.856</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B3243" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3243" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D3243" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E3243" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="F3243" t="n">
+        <v>1.862</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B3244" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3244" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="D3244" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="E3244" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F3244" t="n">
+        <v>1.865</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B3245" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3245" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D3245" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E3245" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="F3245" t="n">
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B3246" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3246" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D3246" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E3246" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="F3246" t="n">
+        <v>1.906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159915.xlsx
+++ b/data/download_SZ159915.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3246"/>
+  <dimension ref="A1:F3248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78345,6 +78345,54 @@
         <v>1.906</v>
       </c>
     </row>
+    <row r="3247">
+      <c r="A3247" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B3247" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3247" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="D3247" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E3247" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="F3247" t="n">
+        <v>1.902</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B3248" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3248" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D3248" t="n">
+        <v>1.913</v>
+      </c>
+      <c r="E3248" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="F3248" t="n">
+        <v>1.908</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159915.xlsx
+++ b/data/download_SZ159915.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3248"/>
+  <dimension ref="A1:F3253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78393,6 +78393,126 @@
         <v>1.908</v>
       </c>
     </row>
+    <row r="3249">
+      <c r="A3249" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B3249" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3249" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="D3249" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E3249" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="F3249" t="n">
+        <v>1.901</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B3250" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3250" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D3250" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E3250" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="F3250" t="n">
+        <v>1.895</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B3251" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3251" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="D3251" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E3251" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="F3251" t="n">
+        <v>1.904</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B3252" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3252" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="D3252" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="E3252" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="F3252" t="n">
+        <v>1.935</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B3253" t="inlineStr">
+        <is>
+          <t>SZ159915</t>
+        </is>
+      </c>
+      <c r="C3253" t="n">
+        <v>1.967</v>
+      </c>
+      <c r="D3253" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="E3253" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="F3253" t="n">
+        <v>1.953</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
